--- a/Simulation.xlsx
+++ b/Simulation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex2\Desktop\mbse2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A030ECDD-8D79-4DFE-AD35-FCFFD99B9569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199C617A-3235-4CEB-BD2C-C37E3858B4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="1632" windowWidth="28404" windowHeight="13092" xr2:uid="{F12D5225-5420-4176-9C12-5DC87BC6CC5F}"/>
+    <workbookView xWindow="1416" yWindow="2436" windowWidth="28404" windowHeight="13092" xr2:uid="{F12D5225-5420-4176-9C12-5DC87BC6CC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>HealtyPersons</t>
-  </si>
-  <si>
-    <t>InfectedPersons</t>
-  </si>
-  <si>
-    <t>RecoveredPersons</t>
   </si>
   <si>
     <t>Time</t>
@@ -64,6 +58,18 @@
   </si>
   <si>
     <t>1000without</t>
+  </si>
+  <si>
+    <t>Infected with wearable</t>
+  </si>
+  <si>
+    <t>Recovered with wearable</t>
+  </si>
+  <si>
+    <t>Infected without wearable</t>
+  </si>
+  <si>
+    <t>Recovered without wearable</t>
   </si>
 </sst>
 </file>
@@ -116,6 +122,6273 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Default scenario</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Infected with wearable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0B1-4001-8641-F099B3147E6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovered with wearable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0B1-4001-8641-F099B3147E6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Infected without wearable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A0B1-4001-8641-F099B3147E6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovered without wearable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A0B1-4001-8641-F099B3147E6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1328939184"/>
+        <c:axId val="1328932944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1328939184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328932944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1328932944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328939184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Infected with wearable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-134E-4FC4-BB6C-87252B097765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovered with wearable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-134E-4FC4-BB6C-87252B097765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Infected without wearable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$Q$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-134E-4FC4-BB6C-87252B097765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovered without wearable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$R$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-134E-4FC4-BB6C-87252B097765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="869040528"/>
+        <c:axId val="869043024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="869040528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="869043024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="869043024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="869040528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Infected with wearable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$4:$V$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29FE-4FF1-BFD2-0C5452558D58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovered with wearable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$4:$W$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29FE-4FF1-BFD2-0C5452558D58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Infected without wearable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$4:$AA$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-29FE-4FF1-BFD2-0C5452558D58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovered without wearable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$4:$AB$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-29FE-4FF1-BFD2-0C5452558D58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1186809264"/>
+        <c:axId val="1186813424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1186809264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186813424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1186813424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186809264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461010</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD91EE85-7174-4F37-94EB-666EC9C8E6E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FA5C1B-0BCC-42F6-8AD9-B56909E45D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>491490</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78183DC-A4A4-4FA3-8319-312F996DE414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,30 +6690,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAF4009-B2D4-452B-9339-403734E56162}">
   <dimension ref="A1:AC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>7</v>
-      </c>
-      <c r="U1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -448,73 +6721,73 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
       <c r="P3" t="s">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" t="s">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3</v>
-      </c>
       <c r="U3" t="s">
         <v>0</v>
       </c>
       <c r="V3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" t="s">
         <v>1</v>
       </c>
-      <c r="W3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z3" t="s">
         <v>0</v>
       </c>
       <c r="AA3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="s">
         <v>1</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
@@ -7169,5 +13442,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>